--- a/results.xlsx
+++ b/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4054,6 +4054,471 @@
         <v>52.49</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>vanilla</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>LoveDADataset</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>46.45</v>
+      </c>
+      <c r="F118" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="G118" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>vanilla</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>LoveDADataset</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="G119" t="n">
+        <v>47.07</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>vanilla</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>ISPRSDataset</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>42.92</v>
+      </c>
+      <c r="F120" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="G120" t="n">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>vanilla</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>ISPRSDataset</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>42.92</v>
+      </c>
+      <c r="F121" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="G121" t="n">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>vanilla</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>ISPRSDataset</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>43.02</v>
+      </c>
+      <c r="F122" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="G122" t="n">
+        <v>47.72</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>vanilla</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>ISPRSDataset</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="F123" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="G123" t="n">
+        <v>47.63</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>SegEarth</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>ISPRSDataset</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="G124" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>vanilla</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>LoveDADataset</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>46.45</v>
+      </c>
+      <c r="F125" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="G125" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>SegEarth</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>ISPRSDataset</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>52.51</v>
+      </c>
+      <c r="F126" t="n">
+        <v>28.54</v>
+      </c>
+      <c r="G126" t="n">
+        <v>56.47</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>SegEarth</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>ISPRSDataset</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>52.86</v>
+      </c>
+      <c r="F127" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="G127" t="n">
+        <v>56.65</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>SegEarth</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>ISPRSDataset</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="F128" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="G128" t="n">
+        <v>56.76</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>SegEarth</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>ISPRSDataset</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>52.93</v>
+      </c>
+      <c r="F129" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="G129" t="n">
+        <v>56.75</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>SegEarth</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>ISPRSDataset</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="G130" t="n">
+        <v>56.52</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>SegEarth</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>ISPRSDataset</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>42.73</v>
+      </c>
+      <c r="F131" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="G131" t="n">
+        <v>45.05</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>SegEarth</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>ISPRSDataset</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>52.49</v>
+      </c>
+      <c r="F132" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="G132" t="n">
+        <v>56.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4519,6 +4519,68 @@
         <v>56.46</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>SegEarth</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>ISPRSDataset</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="G133" t="n">
+        <v>56.52</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>CLIP</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ViT-B/16</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>SegEarth</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>ISPRSDataset</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>28.59</v>
+      </c>
+      <c r="G134" t="n">
+        <v>56.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
